--- a/data/trans_orig/Q31A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q31A-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,41</t>
+          <t>16,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,17</t>
+          <t>16,16</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,13; 16,72</t>
+          <t>16,1; 16,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,72; 16,61</t>
+          <t>15,72; 16,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,06; 16,58</t>
+          <t>16,05; 16,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,47 +811,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>16,78</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17,42</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17,5</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17,46</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16,88</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17,05</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17,15</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17,08</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>16,82</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>17,42</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>17,5</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>17,46</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>16,89</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>17,05</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>17,15</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>17,08</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>16,85</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,55; 17,11</t>
+          <t>16,5; 17,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,57; 17,35</t>
+          <t>16,56; 17,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,64; 17,09</t>
+          <t>16,61; 17,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,38</t>
+          <t>18,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,62</t>
+          <t>17,6</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,52</t>
+          <t>16,95; 17,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,95; 18,95</t>
+          <t>17,95; 18,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,38; 17,91</t>
+          <t>17,37; 17,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,11</t>
+          <t>17,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,93</t>
+          <t>18,91</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,77</t>
+          <t>17,74</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,85; 17,49</t>
+          <t>16,82; 17,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,38; 19,59</t>
+          <t>18,38; 19,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,5; 18,12</t>
+          <t>17,45; 18,09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>18,43</t>
+          <t>18,42</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,15; 18,04</t>
+          <t>17,15; 18,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,38; 21,22</t>
+          <t>19,38; 21,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,07; 18,93</t>
+          <t>18,06; 18,91</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,15</t>
+          <t>18,19</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,2</t>
+          <t>17,96</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,51</t>
+          <t>17,41</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,4</t>
+          <t>17,11</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>20,67</t>
+          <t>19,39</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,22</t>
+          <t>22,5</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,64</t>
+          <t>22,39</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,3</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>18,62</t>
+          <t>18,42</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>19,48</t>
+          <t>19,2</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>18,88</t>
+          <t>18,78</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>17,78</t>
+          <t>17,19</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,78; 18,59</t>
+          <t>17,71; 18,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,7; 19,22</t>
+          <t>17,5; 18,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,1; 18,12</t>
+          <t>16,89; 18,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,07; 17,86</t>
+          <t>16,83; 17,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,53; 22,89</t>
+          <t>18,6; 20,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,42; 26,31</t>
+          <t>20,9; 25,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,99; 26,19</t>
+          <t>20,84; 26,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,76; 21,2</t>
+          <t>16,25; 21,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,21; 19,2</t>
+          <t>18,0; 18,93</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,83; 20,52</t>
+          <t>18,62; 20,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,27; 19,81</t>
+          <t>18,07; 20,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,84; 18,4</t>
+          <t>16,38; 18,29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,1</t>
+          <t>18,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,34</t>
+          <t>18,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,0</t>
+          <t>17,71</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,14</t>
+          <t>17,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,14</t>
+          <t>23,11</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,76</t>
+          <t>24,93</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,59</t>
+          <t>23,17</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,25</t>
+          <t>20,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17,43</t>
+          <t>18,97</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17,82</t>
+          <t>20,02</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>17,58</t>
+          <t>19,06</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>18,39</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>17,39; 18,76</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17,5; 21,51</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17,06; 18,67</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17,27; 19,21</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20,35; 28,67</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>21,06; 33,54</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 30,52</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18,81; 21,74</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>18,09; 20,2</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18,6; 22,81</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18,11; 20,96</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>17,77; 19,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>17,1</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17,34</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17,0</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17,12</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>18,14</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>18,76</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>18,59</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18,01</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>17,43</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>17,82</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>17,58</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>17,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>17,0; 17,19</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>17,22; 17,5</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>16,89; 17,12</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>17,0; 17,3</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>16,98; 17,27</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>17,96; 18,35</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>18,48; 19,14</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>18,3; 18,98</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>17,49; 18,66</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>17,0; 18,64</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>17,34; 17,54</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>17,68; 17,97</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>17,45; 17,73</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>17,32; 17,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>17,08; 17,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/Q31A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q31A-Edad-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,72; 16,14</t>
+          <t>15,73; 16,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,95; 16,36</t>
+          <t>15,96; 16,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,95; 16,3</t>
+          <t>15,93; 16,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,1; 16,7</t>
+          <t>16,09; 16,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,25; 16,69</t>
+          <t>16,23; 16,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,98; 16,48</t>
+          <t>16,01; 16,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,25; 16,69</t>
+          <t>16,24; 16,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,72; 16,62</t>
+          <t>15,72; 16,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,98; 16,28</t>
+          <t>15,99; 16,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,04; 16,32</t>
+          <t>16,02; 16,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,12; 16,41</t>
+          <t>16,13; 16,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,05; 16,57</t>
+          <t>16,06; 16,58</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,72; 17,04</t>
+          <t>16,71; 17,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,8; 17,22</t>
+          <t>16,8; 17,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,67; 17,05</t>
+          <t>16,65; 17,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,5; 17,06</t>
+          <t>16,52; 17,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,21; 17,63</t>
+          <t>17,21; 17,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,21; 17,83</t>
+          <t>17,22; 17,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 17,85</t>
+          <t>17,18; 17,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,56; 17,34</t>
+          <t>16,53; 17,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,91; 17,18</t>
+          <t>16,93; 17,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,99; 17,34</t>
+          <t>17,0; 17,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,91; 17,29</t>
+          <t>16,92; 17,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,61; 17,06</t>
+          <t>16,6; 17,04</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,35</t>
+          <t>16,99; 17,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,06; 17,49</t>
+          <t>17,06; 17,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,86; 17,31</t>
+          <t>16,87; 17,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,53</t>
+          <t>16,94; 17,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,96; 18,76</t>
+          <t>18,0; 18,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,37; 19,14</t>
+          <t>18,36; 19,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,58; 18,36</t>
+          <t>17,57; 18,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,95; 18,92</t>
+          <t>17,9; 18,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,41; 17,81</t>
+          <t>17,41; 17,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,63; 18,02</t>
+          <t>17,6; 18,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,18; 17,6</t>
+          <t>17,19; 17,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,37; 17,89</t>
+          <t>17,37; 17,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,19; 17,6</t>
+          <t>17,18; 17,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,12</t>
+          <t>17,47; 18,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,01; 17,57</t>
+          <t>16,99; 17,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,5</t>
+          <t>16,83; 17,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,96; 20,08</t>
+          <t>18,96; 20,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,95; 20,16</t>
+          <t>18,9; 20,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,65; 19,81</t>
+          <t>18,61; 19,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,38; 19,57</t>
+          <t>18,39; 19,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,81; 18,3</t>
+          <t>17,8; 18,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,08; 18,65</t>
+          <t>18,08; 18,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,77; 18,38</t>
+          <t>17,74; 18,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,45; 18,09</t>
+          <t>17,46; 18,09</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,31; 17,94</t>
+          <t>17,32; 17,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,56; 19,03</t>
+          <t>17,52; 18,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,74; 17,36</t>
+          <t>16,71; 17,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,15; 18,03</t>
+          <t>17,18; 17,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,2; 20,73</t>
+          <t>19,22; 20,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,83; 22,26</t>
+          <t>19,8; 22,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,37; 21,73</t>
+          <t>19,46; 21,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,38; 21,19</t>
+          <t>19,33; 21,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,98; 18,7</t>
+          <t>17,98; 18,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,4; 19,6</t>
+          <t>18,39; 19,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,7; 18,58</t>
+          <t>17,74; 18,63</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,06; 18,91</t>
+          <t>18,05; 18,9</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,71; 18,75</t>
+          <t>17,7; 18,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,5; 18,53</t>
+          <t>17,48; 18,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,89; 18,13</t>
+          <t>16,89; 18,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,83; 17,44</t>
+          <t>16,81; 17,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,6; 20,34</t>
+          <t>18,53; 20,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,9; 25,5</t>
+          <t>20,94; 25,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,84; 26,91</t>
+          <t>20,79; 26,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,25; 21,41</t>
+          <t>16,29; 21,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,0; 18,93</t>
+          <t>18,01; 18,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,62; 20,19</t>
+          <t>18,58; 20,24</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,07; 20,09</t>
+          <t>18,11; 20,19</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,38; 18,29</t>
+          <t>16,39; 18,32</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,39; 18,76</t>
+          <t>17,34; 18,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,5; 21,51</t>
+          <t>17,57; 22,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,06; 18,67</t>
+          <t>17,1; 18,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,27; 19,21</t>
+          <t>17,22; 19,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,35; 28,67</t>
+          <t>20,44; 28,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,06; 33,54</t>
+          <t>20,82; 32,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,96; 30,52</t>
+          <t>19,8; 29,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,81; 21,74</t>
+          <t>18,68; 21,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,09; 20,2</t>
+          <t>18,14; 20,26</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,6; 22,81</t>
+          <t>18,66; 23,02</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,11; 20,96</t>
+          <t>18,02; 20,84</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,77; 19,46</t>
+          <t>17,68; 19,4</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,19</t>
+          <t>17,0; 17,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,22; 17,5</t>
+          <t>17,21; 17,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,12</t>
+          <t>16,89; 17,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,98; 17,27</t>
+          <t>16,99; 17,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,96; 18,35</t>
+          <t>17,95; 18,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,48; 19,14</t>
+          <t>18,47; 19,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,3; 18,98</t>
+          <t>18,31; 18,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,0; 18,64</t>
+          <t>16,99; 18,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,54</t>
+          <t>17,34; 17,53</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>17,68; 17,97</t>
+          <t>17,69; 17,97</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17,45; 17,73</t>
+          <t>17,45; 17,74</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,08; 17,65</t>
+          <t>17,11; 17,65</t>
         </is>
       </c>
     </row>
